--- a/app/postgres_data/daily/forecast_generation/archiv/13_12_2022_forec_gen.xlsx
+++ b/app/postgres_data/daily/forecast_generation/archiv/13_12_2022_forec_gen.xlsx
@@ -23,7 +23,7 @@
     <t>Zeitraum: 28.11.2022, 00:00 - 15.12.2022, 23:59</t>
   </si>
   <si>
-    <t>Stand: 13.12.2022, 13:18</t>
+    <t>Stand: 13.12.2022, 16:13</t>
   </si>
   <si>
     <t>(c) Bundesnetzagentur | SMARD.de</t>
